--- a/MM.xlsx
+++ b/MM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\j\fact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8D997A-1234-442D-BF2D-0D132CB19451}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E0113D-E04C-4B4F-B88B-F553203DEDA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -895,7 +895,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -911,14 +911,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -932,14 +932,14 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5647,8 +5647,8 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5747,7 +5747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -5779,7 +5779,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15">
         <f>+'6'!E13+'12'!E13+'8'!E13+'7'!E13+'2'!E13+'5'!E13+'4'!E13+'9'!E13+'1'!E13+'10'!E13+'3'!E13+'11'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13</f>
         <v>0</v>
@@ -6688,8 +6690,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:B46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6805,7 +6807,9 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
@@ -6822,7 +6826,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -7585,8 +7591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7692,7 +7698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -7702,14 +7708,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -7719,7 +7727,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -8482,8 +8492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8589,7 +8599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -8599,14 +8609,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -8616,7 +8628,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -9382,8 +9396,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9487,7 +9501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -9497,14 +9511,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -9514,7 +9530,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -10276,8 +10294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10383,7 +10401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -10393,14 +10411,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -10410,7 +10430,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -11173,8 +11195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11280,7 +11302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -11290,14 +11312,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -11307,7 +11331,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -12070,8 +12096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12177,7 +12203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -12187,14 +12213,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -12204,7 +12232,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -12967,8 +12997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13074,7 +13104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -13084,14 +13114,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -13101,7 +13133,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -13864,8 +13898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13971,7 +14005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -13981,14 +14015,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -13998,7 +14034,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -14761,8 +14799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14868,7 +14906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -14878,14 +14916,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -14895,7 +14935,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -15661,8 +15703,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15768,7 +15810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -15778,14 +15820,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -15795,7 +15839,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -16558,8 +16604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16662,7 +16708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -16672,14 +16718,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -16689,7 +16737,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -17455,8 +17505,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17562,7 +17612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -17572,14 +17622,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -17589,7 +17641,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -18355,8 +18409,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18462,7 +18516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -18472,14 +18526,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -18489,7 +18545,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -19255,8 +19313,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19362,7 +19420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -19372,14 +19430,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -19389,7 +19449,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -20155,8 +20217,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20262,7 +20324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -20272,14 +20334,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -20289,7 +20353,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -21055,8 +21121,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21165,7 +21231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -21175,14 +21241,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -21192,7 +21260,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -21957,8 +22027,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22064,7 +22134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -22074,14 +22144,16 @@
       <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>177</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
         <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -22091,7 +22163,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -22857,8 +22931,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22964,7 +23038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2644573</v>
       </c>
@@ -22983,7 +23057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2646698</v>
       </c>
@@ -22993,7 +23067,9 @@
       <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>177</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>

--- a/MM.xlsx
+++ b/MM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E0113D-E04C-4B4F-B88B-F553203DEDA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED8EFB-2CAD-4877-945C-48C50E3723FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>CACHET</t>
   </si>
   <si>
-    <t>HAKIM OULD KHESSAL</t>
-  </si>
-  <si>
     <t>ABDERRAHMAN SAADOUN</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>BACHDJERAH HUSSEIN DEY EL MAGHARIA BOUROUBA</t>
   </si>
   <si>
-    <t>HAMIDANE MUSTAPHA</t>
-  </si>
-  <si>
     <t>ZOUBIRI AMINE</t>
   </si>
   <si>
@@ -234,15 +228,21 @@
   <si>
     <t>08 07 2023</t>
   </si>
+  <si>
+    <t xml:space="preserve">DEBAGH OUSSAMA </t>
+  </si>
+  <si>
+    <t>SEBAIHI SIDALI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -895,7 +895,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -911,14 +911,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -932,14 +932,14 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +979,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5647,8 +5647,8 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5708,7 +5708,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
@@ -5716,7 +5716,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
@@ -5724,7 +5724,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
@@ -6368,7 +6368,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -6390,7 +6390,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -6412,7 +6412,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -6434,7 +6434,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -6551,7 +6551,7 @@
     <row r="53" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="54" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B54" s="55"/>
       <c r="C54" s="23"/>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="55" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="55"/>
       <c r="C55" s="23"/>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="56" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56" s="55"/>
       <c r="C56" s="51"/>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="57" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="55"/>
       <c r="C57" s="23"/>
@@ -6690,7 +6690,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -7334,7 +7334,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -7353,7 +7353,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -7372,7 +7372,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -7391,7 +7391,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -7591,7 +7591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -8235,7 +8235,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -8254,7 +8254,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -8273,7 +8273,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -8292,7 +8292,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -8492,7 +8492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -9136,7 +9136,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -9155,7 +9155,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -9174,7 +9174,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -9193,7 +9193,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -9396,7 +9396,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -10038,7 +10038,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -10057,7 +10057,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -10076,7 +10076,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -10095,7 +10095,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -10294,7 +10294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -10938,7 +10938,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -10957,7 +10957,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -10976,7 +10976,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -10995,7 +10995,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -11195,7 +11195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -11839,7 +11839,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -11858,7 +11858,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -11877,7 +11877,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -11896,7 +11896,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -12096,7 +12096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -12740,7 +12740,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -12759,7 +12759,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -12778,7 +12778,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -12797,7 +12797,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -12997,7 +12997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -13641,7 +13641,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -13660,7 +13660,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -13679,7 +13679,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -13698,7 +13698,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -13898,7 +13898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -14542,7 +14542,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -14561,7 +14561,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -14580,7 +14580,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -14599,7 +14599,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -14799,7 +14799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -15443,7 +15443,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -15462,7 +15462,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -15481,7 +15481,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -15500,7 +15500,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -15703,7 +15703,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -16347,7 +16347,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -16366,7 +16366,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -16385,7 +16385,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -16404,7 +16404,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -16604,7 +16604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -17245,7 +17245,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -17264,7 +17264,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -17283,7 +17283,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -17302,7 +17302,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -17505,7 +17505,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -18149,7 +18149,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -18168,7 +18168,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -18187,7 +18187,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -18206,7 +18206,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -18409,7 +18409,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -19053,7 +19053,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -19072,7 +19072,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -19091,7 +19091,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -19110,7 +19110,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -19313,7 +19313,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -19957,7 +19957,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -19976,7 +19976,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -19995,7 +19995,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -20014,7 +20014,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -20217,7 +20217,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -20861,7 +20861,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -20880,7 +20880,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -20899,7 +20899,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -20918,7 +20918,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -21121,7 +21121,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -21208,7 +21208,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
@@ -21768,7 +21768,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -21787,7 +21787,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -21806,7 +21806,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -21825,7 +21825,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -22027,7 +22027,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -22671,7 +22671,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -22690,7 +22690,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -22709,7 +22709,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -22728,7 +22728,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
@@ -22931,7 +22931,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -23575,7 +23575,7 @@
         <v>2917788</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="38">
         <v>4</v>
@@ -23594,7 +23594,7 @@
         <v>2918203</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="38">
         <v>4</v>
@@ -23613,7 +23613,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="38">
         <v>4</v>
@@ -23632,7 +23632,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="38">
         <v>10</v>
